--- a/biology/Médecine/Hémoglobinémie/Hémoglobinémie.xlsx
+++ b/biology/Médecine/Hémoglobinémie/Hémoglobinémie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobin%C3%A9mie</t>
+          <t>Hémoglobinémie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hémoglobinémie est la présence d'hémoglobine dans le plasma sanguin.
 Le terme d'hémoglobinémie désigne également la concentration d'hémoglobine dans le plasma. Celle-ci est en général inférieure à 5 mg pour 100 ml (à ne pas confondre avec le taux d'hémoglobine, qui est la concentration totale d'hémoglobine dans le sang exprimé en g/100 ml). Celui-ci dépend de l'âge et du sexe du sujet et correspond essentiellement à l'hémoglobine présente dans les hématies.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9moglobin%C3%A9mie</t>
+          <t>Hémoglobinémie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Caractéristiques de cette anomalie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La présence d'hémoglobine dans le plasma sanguin est anormale, et se produit lors d'une hémolyse intra-vasculaire. L'hémolyse intravasculaire est définie comme l'éclatement des hématies (aussi appelés globules rouges) qui libèrent alors l'hémoglobine qu'ils contiennent.
 L'hémoglobine est un pigment rouge qui permet le transport du dioxygène et du dioxyde de carbone.
